--- a/tempoverde/jd.xlsx
+++ b/tempoverde/jd.xlsx
@@ -423,1510 +423,3647 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Descrizione</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Sottocategoria</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Descrizione</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Listino 4 (ivato)</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Produttore</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Cod. Fornitore</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Categoria</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Immagine</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Internet</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>images</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>1585 TerrainCut</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Tosaerba Professionali</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1575 TerrainCut</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Si dice che c'è un tosaerba per ogni tipo di lavoro. Noi diciamo che c'è un tosaerba in grado di affrontare tutti i lavori che volete svolgere. Si chiama frontale TerrainCut serie 1500. Le frontali più efficienti ed adatte a tutti i lavori dell'anno mai costruite prima: questa nuova linea offre prestazioni senza pari. Con l'opzione della cabina ComfortCab installata in fabbrica, i potenti motori diesel ed i piatti 7-Iron PRO, i tosaerba TerrainCut serie 1500 sono più che all'altezza del lavoro da svolgere.</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+ComfortCab integrata
+Motore diesel
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1585 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 38.2 CV*28.1 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\1575-TerrainCut.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1575-terraincut/</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\1585-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1585-terraincut/</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>1580 TerrainCut</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Tosaerba Professionali</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1585 TerrainCut</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Si dice che c'è un tosaerba per ogni tipo di lavoro. Noi diciamo che c'è un tosaerba in grado di affrontare tutti i lavori che volete svolgere. Si chiama frontale TerrainCut serie 1500. Le frontali più efficienti ed adatte a tutti i lavori dell'anno mai costruite prima: questa nuova linea offre prestazioni senza pari. Con l'opzione della cabina ComfortCab installata in fabbrica, i potenti motori diesel ed i piatti 7-Iron PRO, i tosaerba TerrainCut serie 1500 sono più che all'altezza del lavoro da svolgere.</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+Motore diesel
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1580 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 38.2 CV*28.1 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\1585-TerrainCut.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1585-terraincut/</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\1580-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1580-terraincut/</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>1575 TerrainCut</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Tosaerba Professionali</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1580 TerrainCut</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Si dice che c'è un tosaerba per ogni tipo di lavoro. Noi diciamo che c'è un tosaerba in grado di affrontare tutti i lavori che volete svolgere. Si chiama frontale TerrainCut serie 1500. Le frontali più efficienti ed adatte a tutti i lavori dell'anno mai costruite prima: questa nuova linea offre prestazioni senza pari. Con l'opzione della cabina ComfortCab installata in fabbrica, i potenti motori diesel ed i piatti 7-Iron PRO, i tosaerba TerrainCut serie 1500 sono più che all'altezza del lavoro da svolgere.</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+Motore diesel
+ComfortCab integrata
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1575 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 30.9 CV*22.7 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\1580-TerrainCut.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1580-terraincut/</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\1575-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1575-terraincut/</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>1570 TerrainCut</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Tosaerba Professionali</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1550 TerrainCut</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Si dice che c'è un tosaerba per ogni tipo di lavoro. Noi diciamo che c'è un tosaerba in grado di affrontare tutti i lavori che volete svolgere. Si chiama frontale TerrainCut serie 1500. Le frontali più efficienti ed adatte a tutti i lavori dell'anno mai costruite prima: questa nuova linea offre prestazioni senza pari. Con l'opzione della cabina ComfortCab installata in fabbrica, i potenti motori diesel ed i piatti 7-Iron PRO, i tosaerba TerrainCut serie 1500 sono più che all'altezza del lavoro da svolgere.</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+Motore diesel
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1570 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 30.9 CV*22.7 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\1550-TerrainCut.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1550-terraincut/</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\1570-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1570-terraincut/</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>X950R</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Tosaerba Professionali</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1570 TerrainCut</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Si dice che c'è un tosaerba per ogni tipo di lavoro. Noi diciamo che c'è un tosaerba in grado di affrontare tutti i lavori che volete svolgere. Si chiama frontale TerrainCut serie 1500. Le frontali più efficienti ed adatte a tutti i lavori dell'anno mai costruite prima: questa nuova linea offre prestazioni senza pari. Con l'opzione della cabina ComfortCab installata in fabbrica, i potenti motori diesel ed i piatti 7-Iron PRO, i tosaerba TerrainCut serie 1500 sono più che all'altezza del lavoro da svolgere.</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Motore diesel ad alta coppia
+Motori idraulici heavy-duty delle ruote
+Eccellente ergonomia e comandi intuitivi
+Specifiche
+John Deere X950R Tosaerba Professionali
+Potenza motore 18,5 KW25,2 CV
+Trasmissione Idraulico
+Servosterzo 2 ruote sterzanti anteriori
+Velocità di avanzamento 14,5 km/h</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\1570-TerrainCut.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1570-terraincut/</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X950R.jpg</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x950r/</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>X949</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Trattorini Tosaerba Diesel</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>X940</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Tutti i modelli serie X940 sono dotati di un robusto sistema di protezione antiribaltamento (ROPS) che garantisce sicurezza durante le operazioni. La barra può essere temporaneamente ripiegata verso il basso quando si lavora sotto gli alberi o in aree con vegetazione rigogliosa.</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Pedali Twin Touch
+Comando Cruise
+Sistema di sollevamento del piatto: idraulico
+Innesto del piatto di taglio: elettrico
+Servosterzo tipo: 4 ruote sterzanti
+Sistema di trasmissione: 4 ruote motrici
+Specifiche
+John Deere X949 Trattorini Tosaerba Diesel
+Motore 18 kW24.5 CV
+Trasmissione 4 ruote motrici
+Servosterzo Idraulico, 4 ruote sterzanti
+Velocità in marcia avanti 13,7 km/h</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X940.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x940/</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X949.jpg</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x949/</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trattorini Tosaerba Diesel</t>
+          <t>9009A TerrainCut</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>X948</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Tutti i modelli serie X940 sono dotati di un robusto sistema di protezione antiribaltamento (ROPS) che garantisce sicurezza durante le operazioni. La barra può essere temporaneamente ripiegata verso il basso quando si lavora sotto gli alberi o in aree con vegetazione rigogliosa.</t>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Macchine da tee, approach e rough</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Cinque unità di taglio rotative indipendenti da 68,58 cm con larghezza di taglio di 2,74 m
+Scocca a forma profonda con scivolo dello scarico posteriore esclusivo
+Sistema a spine per regolare l'altezza di taglio comodamente senza l'uso di attrezzi
+LoadMatch™ per affrontare al meglio le salite e ottimizzare la qualità di taglio
+Specifiche
+John Deere 9009A TerrainCut Macchine da tee, approach e rough
+Diesel a 4 cilindri turbocompresso a iniezione diretta 55.1 CV (41.1*kW)
+Velocità di taglio 0 – 8 mph (0-12,8 km/h)
+Larghezza di taglio totale 108 in (274 cm)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X948.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x948/</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\9009A-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-golf-sport/macchine-da-tee-approach-e-rough/9009a-terraincut/</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>X948</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>Trattorini Tosaerba Diesel</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>X949</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Tutti i modelli serie X940 sono dotati di un robusto sistema di protezione antiribaltamento (ROPS) che garantisce sicurezza durante le operazioni. La barra può essere temporaneamente ripiegata verso il basso quando si lavora sotto gli alberi o in aree con vegetazione rigogliosa.</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Pedali Twin Touch
+Comando Cruise
+Sistema di sollevamento del piatto: idraulico
+Innesto del piatto di taglio: elettrico
+Servosterzo tipo: 2 ruote sterzanti anteriori
+Sistema di trasmissione: 4 ruote motrici
+Specifiche
+John Deere X948 Trattorini Tosaerba Diesel
+Motore 18 kW24.5 CV
+Trasmissione 4 ruote motrici
+Servosterzo Idraulico, 2 ruote sterzanti anteriori
+Velocità in marcia avanti 13,7 km/h</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X949.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x949/</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X948.jpg</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x948/</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tosaerba Professionali</t>
+          <t>1600T Serie III</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>X950R</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Il nuovissimo trattorino X950R è la soluzione ideale per i lavori più duri. Questo modello con scarico e raccolta posteriore è dotato di telaio e piatto robusti in acciaio per lavorare a lungo senza problemi. Il motore diesel ad alta coppia ed i motori idraulici delle ruote heavy-duty consentono di gestire i terreni più difficili per tutto il giorno. Grazie alla eccellente ergonomia ed ai comandi intuitivi gli operatori possono lavorare nel massimo comfort!</t>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tosaerba a taglio rotativo per ampie superfici</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Trazione integrale permanente o su richiesta
+Realizzato per la falciatura di superfici ampie
+I piatti di taglio sono costruiti a partire da acciaio durezza 7 con una barra di protezione aggiuntiva da 19 mm
+Specifiche
+John Deere 1600T Serie III Tosaerba a taglio rotativo per ampie superfici
+Motore - Costurrote/modello 4TNV86CT-DJWM (T4)
+Motore - Potenza Potenza lorda SAE J1995 a 3000 giri/min, PS 60 hp44 kW
+Capacità serbatoio carburante 22 U.S. gal.83,3 L
+Apparati falcianti - Dimensioni 62, 94, 128 in.157, 239, 325 cm
+Velocità punta della lama 13 fpm3962 m/min
+Tipo di trasmissione Idrostatica
+Gamma di velocità
+Ruote motrici 26x12-12
+Ruote guida Piatto ad alette: Quattro, 11x4-5, antiforaturaPiatto frontale: Due, 11x4-5, antiforatura
+Garanzia 2 anni
+Costruttore/modello
+Modello 4TNV86CT-DJWM (T4)
+Cilindrata 127,6 cu in.2091 L
+Alesaggio e corsa 3,4x3,5 in.86x90 mm
+Iniezione Diretta
+Dispositivo ausiliario di avviamento Candela a incandescenza del motore
+Cilindri Quattro
+Ciclo Quattro
+Potenza Potenza lorda SAE J1995 a 3000 giri/min, PS 60 hp44 kW
+Regime motore nominale 3000 rpm
+Gamma di funzionamento Con regolatore isocrono 1400-3030 rpm
+Lubrificazione Pressurizzata da pompa a lobi
+Filtro olio Ad avvitamento rapido
+Raffreddamento Forzata ad acqua di raffreddamento
+Capacità impianto di raffreddamento 2,5 U.S. gal.7,5 L
+Capacità del basamento motore 6,1 U.S. qt5,8 L
+Rapporto di compressione 19:01
+Coppia di funzionamento (netta continua a 3000 giri/min) 103 lb-ft140 Nm
+Coppia max in conformità a SAE J1349 (netta continua) 117,3 lb-ft159 Nm
+Filtro aria Doppio elemento, tipo a secco
+Spia di intasamento dell'aria Standard, tipo progressivo
+Spegnimento motore Chiave
+Posizione radiatore Montaggio posteriore
+Alette radiatore 10 alette per pollice
+Potenza (netta intermittente)
+Tipo di carburante Diesel
+Pompa di alimentazione carburante Elettrica
+Filtro del carburante Sostituibile, modello avvitabile
+Separatore dell'acqua Sostituibile, elemento a 100 maglie
+Dispositivo di avviamento a freddo Fasatura aumentata per un migliore avviamento a freddo
+Capacità serbatoio carburante 22 U.S. gal.83,3 L
+Tipo di pompa del carburante Meccanico
+Foro bocchettone di rifornimento 3 in.7,6 cm
+Posizione del serbatoio carburante Lato sinistro della macchina
+Disaerazione automatica Il sistema viene disaerato automaticamente grazie alla pompa di alimentazione del carburante a comando elettrico
+A pieno carico 3,33 U.S. gal./hr12,7 L/hr
+A mezzo carico 1,93 U.S. gal./hr7,31 L/hr
+Tipo Idraulico, a centro aperto
+Cilindri di sollevamento Alesaggio 2 in.50,8 mm
+Pompa Marcia
+Sistema di carica Tipo automobilistico
+Alternatore 75 amp
+Tensione della batteria 12 V
+Ampere avviamento a freddo della batteria 675 CCA
+Dimensioni motorino d'avviamento 1,9 hp1,4 kW
+Pompa di comando della trazione Cilindrata, pompa a pistoni assiali, 3 cu in.49 cc
+Motorino Cilindrata, pompa a pistoni assiali, 2 cu in.33 cc
+Tipo Circuito chiuso, idrostatico
+Valvola di sicurezza dello sterzo 1087 psi
+Valvola di sicurezza dell'attrezzo 1600 psi
+Capacità serbatoio idraulico 14 U.S. gal.53 L
+Tipo di trasmissione Idrostatica
+Tipo di transasse Doppia gamma
+Transasse Tuff Torque (Kanzaki)
+Trazione integrale A richiesta o permanente
+Tipo di trazione integrale Trazione ruote posteriori meccanica
+Bloccaggio differenziale Meccanico, attivato a pedale
+Riduttore finale Planetario
+Tipo Interno, disco a bagno d'olio
+Freni sterzo Standard
+Freni di stazionamento Freno a mano
+Gamma di velocità
+Velocità di avanzamento ridotta 0-9 mph0-14,5 km/h
+Velocità di avanzamento elevata 0-15 mph0-24 km/h
+Velocità di retromarcia ridotta 0-4,5 mph0-7,2 km/h
+Velocità di retromarcia elevata 0-7,5 mph0-12 km/h
+Con apparato falciante 94 dBA
+Senza apparato falciante 89 dBA
+Tipo di telaio Acciaio tubolare saldato
+Spessore 11 gauge0,120 in.3 mm
+Tipo Potenza, idrostatica
+Volante inclinabile Standard
+Giri da finecorsa a finecorsa 2,5
+Raggio di sterzata 39 in.99 cm
+Sedile Posizioni di regolazioneMultiBraccioliSì, regolabiliSedile deluxe a sospensione pneumatica, regolabile, con schienale alto e con regolazione dell'angolazione dello schienale, regolazione lombare, braccioli di serie
+Sicurezza Interblocco di sicurezza e sistema di rilevamento presenza operatore
+Ruote motrici A pressione30 psi, 206,8 kPa (anteriore)28 psi, 193,1 kPa (posteriore)26x12-12
+Pneumatici di sterzo (posteriori) 18x9,5-8
+Carreggiata Multi Trac
+Specifica tele 6 PR (entrambe)
+Lunghezza (con apparato falciante) 132 in.335 cm
+Passo 60 in.152 cm
+Larghezza carreggiata 52 in.131 cm
+Larghezza con apparati falcianti abbassati 134 in.340 cm
+Altezza con struttura di protezione da ripetuti ribaltamenti (ROPS) ROPS in alto, 98 in.249 cmROPS in basso, 74 in.188 cmCon ROPS con tettuccio a quattro montanti, 82 in.208 cm
+Larghezza di trasporto 84 in.213 cm
+Altezza dal suolo 6,5 in.16,5 cm
+Area circolare di erba non tagliata, senza freni
+Peso veicolo 4173 lb1892,8 kg
+Peso macchina senza apparato falciante 3264 lb1474,2 kg
+Tipo ROPS ribaltabile a due montanti di serie o ROPS con tettuccio a quattro montanti conforme alla norma ISO 21299
+Acceleratore Manuale
+Avanzamento e retromarcia A due pedali
+Sollevamento apparato falciante Tre interruttori a due funzioni
+Freno di parcheggio Acceleratore a pedale/disco
+Spie luminose Riscaldatore aria motore, spia pressione dell'olio, spia temperatura del motore, misuratore carburante, spia della temperatura dell'olio idraulico
+Innesto presa di forza (PTO) TipoIdraulico, indipendenteInterruttore solenoide elettrico
+Innesto/disinnesto presa di forza (PTO) Solenoide elettrico
+Pompa di comando apparato falcante Cilindrata, pompa a pistoni assiali, 2,48 cu in.40,6 cc
+Motore dell'apparato falciante TipoIdraulico, centro aperto, circuito chiusoCilindrata, motore, 2,5 cu in.41 cc
+Circuito Serie
+Tipo di comando apparato falciante Idraulico, circuito chiuso
+Fuselli Con trattamento termico, diametro, 1 in.2,54 cm
+Fusello con cuscinetti lubrificabili Sì
+Apparati falcianti laterali con assorbimento energetico Sì
+Circuito apparato falciante Serie
+Comando della lama Sezione a C, cinghia a V
+Dimensioni 62, 94, 128 in.157, 239, 325 cm
+Larghezza di taglio apparato falciante centrale 62 in.157 cm
+Larghezza di taglio apparato falciante laterale 42 in.107 cm
+Bloccaggio per trasporto Standard
+Scarico Posteriore
+Struttura dell'apparato Acciaio prefabbricato
+Spessore del piatto 7 gauge0,180 in.4,6 mm
+Gamma dell’altezza di taglio 1-5,5 in.2,5-13,9 cm
+Oscillazione apparato falciante laterale Verso l'alto (con innesto presa di forza (PTO))45ºVerso il basso (con innesto presa di forza (PTO))20º
+Efficienza sul campo pari all'80 percento 85% di efficienza sul campo a 10 mph16 km/h11 acres/hr
+Tipo Antiforatura
+Ruote guida dell’apparato falciante laterale Quattro, 11x4-5, antiforatura
+Ruote guida dell'apparato falciante anteriore Due, 11x4-5, antiforatura
+Totale lame dell'apparato falciante Sette, tre al centro e due su ciascun lato
+Lunghezza lama 22 in.55,88 cm
+Larghezza lama 2,5 in.6,35 cm
+Spessore della lama 0,312 in.0,79 cm
+Velocità punta della lama 13 fpm3962 m/min
+Lame intercambiabili su tutti gli apparati falcianti Sì
+Garanzia 2 anni
+Certificazione ANSI B71.4
+Dati Raccolti 12 ott 2017</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X950R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x950r/</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\1600T-Serie-III.jpg</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-taglio-rotativo-per-ampie-superfici/1600t/</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Macchine da tee, approach e rough</t>
+          <t>1550 TerrainCut</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>9009A TerrainCut</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Da oggi con la nuova macchina per rough 9009A TerrainCut potete massimizzare sia la produttività che la qualità di taglio tenendo sotto controllo le prestazioni sul campo. La 9009A è una quintupla rotativa da 68,58 cm con larghezza di taglio di 2,7 m che garantisce la produttività  per  tagliare il rough  per tutta la giornata.</t>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tosaerba Professionali</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Piatti a scarico laterale 7-Iron PRO od a scarico posteriore FASTBACK
+Motore diesel
+Trasmissione idrostatica 4WD
+Compatibile con la lama anteriore Select e la spazzolatrice anteriore
+Specifiche
+John Deere 1550 TerrainCut Tosaerba Professionali
+Dimensioni piatto 60, 62, 72 in153, 158, 183 cm
+Potenza del motore 24.2 CV*17.8 kW
+Opzioni combustibile Diesel</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\9009A-TerrainCut.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-golf-sport/macchine-da-tee-approach-e-rough/9009a-terraincut/</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\1550-TerrainCut.jpg</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/frontali-a-taglio-rotativo/1550-terraincut/</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tosaerba a taglio rotativo per ampie superfici</t>
+          <t>X940</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1600T Serie III</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Per la Serie III 1600T è possibile scegliere tra trazione integrale permanente o su richiesta. Il bloccaggio del differenziale viene fornito come standard con questo modello. I piatti laterali sono in grado di tagliare con un'inclinazione fino a 45 gradi verso l'alto e fino a 20 gradi verso il basso per garantire la qualità del taglio impeccabile.</t>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Trattorini Tosaerba Diesel</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Pedali Twin Touch
+Comando Cruise
+Sistema di sollevamento del piatto: idraulico
+Innesto del piatto di taglio: elettrico
+Servosterzo tipo: 2 ruote sterzanti anteriori
+Sistema di trasmissione: 2 ruote motrici
+Specifiche
+John Deere X940 Trattorini Tosaerba Diesel
+Motore 18 kW24.5 CV
+Trasmissione 2 ruote motrici
+Servosterzo Idraulico, 2 ruote sterzanti anteriori
+Velocità in marcia avanti 13,7 km/h</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\1600T-Serie-III.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-taglio-rotativo-per-ampie-superfici/1600t/</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X940.jpg</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/trattorini-tosaerba-diesel/serie-x900/x940/</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trattorini</t>
+          <t>Z950R</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>X147R</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5313</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>L'X147R combina affidabilità, durata e potenza in ogni aspetto della sua progettazione, dal telaio in acciaio completamente saldato all'assale anteriore in ghisa.Guidare il trattore è un piacere grazie alla stazione operatore ergonomica, ai fari di alta qualità e alla possibilità di selezionare diverse velocità di avanzamento. Trattorino X147R: sistema di raccolta posteriore per una finitura perfetta.</t>
+          <t>ZTrak™ a benzina</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t xml:space="preserve">19 kW (25,5 CV) a 3.250 giri/min (Stage V)
+Velocità di avanzamento: 19,3 km/h (12 mph)
+Larghezze di taglio: 152 cm (60’’) o 183 cm (72’’)
+Pneumatici radiali Airless MichelXTweel Turf opzionali
+</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X147R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x147r/</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\Z950R.jpg</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z950r/</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Trattorini</t>
+          <t>Z740R</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>X117R</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4404</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Il nostro trattorino X117R con scarico e raccolta posteriori presenta un motore monocilindrico, una trasmissione idrostatica con pratici comandi a pedale e un piatto tosaerba Edge da 92 cm (36"). Il cesto di raccolta da 300 l è facilmente rimovibile e sostituibile con deflettore opzionale o trinciatore quando non si desidera raccogliere il materiale falciato. L'X117R dispone di serie di un sollevatore posteriore che consente di trainare diverse attrezzature per svolgere praticamente qualsiasi attività di cura del prato.</t>
+          <t>ZTrak™ a benzina</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t xml:space="preserve">16,2 kW (21,7 CV) a 3.100 giri/min (Stage V)
+Velocità di avanzamento: 13,7 km/h (8,6 mph)
+Larghezze di taglio: 122 cm (48’’) o 137 cm (54’’)
+Pneumatici radiali Airless MichelXTweel Turf opzionali
+</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X117R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x117r/</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\Z740R.jpg</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z740r/</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>Z994R</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>ZTrak™ diesel</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Z997R</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>I nostri tosaerba a raggio di sterzo zero riducono i tempi di lavoro di almeno il 20% rispetto a un tosaerba frontale, permettendo di risparmiare denaro ad ogni utilizzo. Il Z997R combinano un'incredibile manovrabilità ad un motore diesel potente, un piatto ad elevata capacità ed una qualità costruttiva eccellente che garantisce anni di utilizzo affidabile.</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t xml:space="preserve">18,4 kW (24,7 CV) a 3.200 giri/min (Stage V)
+Velocità di avanzamento: 17 km/h (10,5 mph)
+Larghezze di taglio: 137 cm (54’’) o 152 cm (60’’)
+Pneumatici radiali Airless MichelXTweel Turf opzionali
+</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z997R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z997r/</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\Z994R.jpg</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z994r/</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ZTrak™ a benzina</t>
+          <t>Z997R</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Z950R</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Per chi desidera tutto da un tosaerba a raggio di sterzo zero, è necessario continuare a lavorare al meglio dall'inizio alla fine: potenza, comfort e qualità di taglio.</t>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ZTrak™ diesel</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t xml:space="preserve">27,5 kW (37,4 CV) a 2.800 giri/min (Stage V)
+Velocità di avanzamento: 18 km/h (11,5 mph)
+Larghezze di taglio: 152 cm (60’’) o 183 cm (72’’)
+Pneumatici radiali Airless MichelXTweel Turf opzionali
+</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z950R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z950r/</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\Z997R.jpg</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z997r/</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>X380</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>X127</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>4194</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Il modello X127 vanta affidabilità, durata e potenza in ogni aspetto della sua progettazione, incluso un telaio in acciaio completamente saldato e un assale anteriore in ghisa. Il nostro trattorino X127 garantisce una gestione semplice e un utilizzo piacevole grazie alla stazione operatore ergonomica, ad un motore potente con la possibilità di selezionare diverse velocità di avanzamento e ai fari di alta qualità.</t>
+          <t>8857</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>Innesto del piatto: elettrico
+Pedali Twin Touch
+Cruise Control
+Moderno pannello strumenti
+Specifications
+John Deere X380 Trattorini
+Motore - Potenza A 3350 giri/min, 15,2 kW
+Motore -  Produttore/Modello FR691V
+Tipo di gruppo cambio/differenziale K58 idrostatico integrato con trasmissione
+Transasse - Comando Pedali Twin Touch™
+Pneumatici posteriori 22x11-10
+Tipo sistema di sollevamento Con acceleratore a pedale e supporto a molla regolabile
+Larghezza di taglio 122 o 137 cm48 o 54 in.
+Garanzia
+Cambio olio
+Potenza A 3350 giri/min, 15,2 kW
+Cilindrata 726 cc44,3 cu in.
+Produttore/Modello FR691V
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Accoppiati a V, rivestimenti in ghisa
+Regolatore Meccanico
+Comando velocità/starter Leve separate, ritorno starter automatico
+Impianto di raffreddamento Aria
+Filtro aria A secco, sostituibile
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Indicatore su cruscotto
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Sul parafango sinistro, 7,6 cm3 in.
+Capacità serbatoio carburante 12,5 L3,3 U.S. gal.
+Batteria 12 V340 CCA
+Sistema di carica Alternatore a volano, regolato, 12 amp
+Motorino di avviamento motore Bendix
+Contaore Sì
+Fari anteriori Due standard
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo K58 idrostatico integrato con trasmissione
+Comando Pedali Twin Touch™
+CruiseControl Sì, leva sul cruscotto
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, interno
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-10 km/h0-6,2 mph
+Velocità di retromarcia 0-5,6 km/h0-3,5 mph
+Freni Disco interno a bagno d'olio
+Telaio Saldato rinforzato
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso Opzionale anteriore e opzionale posteriore, ciascuna sostiene fino a due pesi Quik-Tatch™, 19 kg42 lb
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6,5-8
+Pneumatici posteriori 22x11-10
+Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Gomma antiscivolo
+Vano portaoggetti Sì, cassetta portattrezzi sotto il sedile e coperta
+Etichetta adesiva con intervalli di manutenzione Sì
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura Sì, rinforzato
+Tipo Manuale, a settore e a pignone
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante 35,6 cm14 in.
+Volante inclinabile No
+Raggio di sterzata 40,6 cm16 in.
+Raggio cerchio non tagliato Piatto tosaerba 48A: 53,3 cm21 in.Piatto tosaerba 54A: 46 cm18 in.
+Tipo Schienale alto personalizzato
+Altezza schienale 46 cm18 in.
+Braccioli Opzionali
+Regolazione longitudinale Con operatore seduto, guida di scorrimento, 15 posizioni, 17 cm6,6 in.
+Sospensione del sedile Due molle a spirale, regolazione in tre posizioni senza attrezzi in base al peso dell'operatore
+Tipo Con acceleratore a pedale e supporto a molla regolabile
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita Sì
+Tipo Scarico laterale
+Larghezza di taglio 122 o 137 cm48 o 54 in.
+Struttura Cassa del piatto di taglio in acciaio stampato
+Materiale piatto di taglio 10 gauge3,4 mm0,135 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba Cinghia in linea, PTO elettrica
+Ruote tosaerba Quattro
+Regolazione ruote tosaerba Perno caricato a molla, sette posizioni
+Regolazione livello del tosaerba Condotti di regolazione di precisione e volantino di livellamento del piatto di taglio a bordo
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Fissati in due punti con spine elastiche
+Bracci delle parallele posteriori Due perni a J caricati a molla
+Rotazione ruote tosaerba Sì
+Sistema di trasmissione Cinghia doppia
+Conforme agli standard ANSI Sì
+Conforme agli standard OPEI Sì
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza
+Note Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.Primer e finitura con vernice in polvere elettroforetici duraturi
+Garanzia
+Raccoglierba posteriore 42A: 2 sacchi, 250 L7 bu
+Raccoglierba motorizzato Soffiatore Power Flow™
+Sistema di pacciamatura Sì
+Strigliatore anteriore
+Lama anteriore 112 cm44 in.
+Lama intermedia
+Turbina da neve 112 cm44 in.
+Spazzola rotativa
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Traino posteriore, 80 kg175 lb
+Paraurti anteriore Opzione paraurti sagomato
+Protezione spazzola Sì
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Tosaerba
+Altezza 124 cm49 in.
+Lunghezza totale 182,9 cm72 in.
+Passo 125,5 cm49,4 in.
+Larghezza con il tosaerba 48A: 159 cm62,5 in.54A: 174 cm68,4 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 48A: 136 cm53,6 in.54A: 151 cm59,4 in.
+Larghezza senza il tosaerba 97,8 cm38,5 in.
+Peso Piatto tosaerba 48A, senza carburante: 299 kg659 lbPiatto tosaerba 54A, senza carburante: 303 kg667 lb
+Posizione produzione Horicon (Wisconsin), USA
+Dati Raccolti 27 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X127.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x127/</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X380.jpg</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x380/</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZTrak™ a benzina</t>
+          <t>Z345R</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Z740R</t>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Trattorini</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Se contate sulla potenza, sul comfort e sulla robustezza di una macchina di livello semi-professionale, la Z740R ZTrak™ è la scelta perfetta: motore di livello professionale, piatto tosaerba robusto e prestazioni di fascia alta.</t>
+          <t>6282</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>Facile da guidare
+Manovrabilità eccezionale
+Struttura robusta
+Velocità di taglio elevate: 10,8 km/h
+Motore da 14,9 kW, 724cc
+Piatto Accel Deep™ da 107 cm (42“)
+Specifications
+John Deere Z345R Trattorini
+Dimensioni area Oltre 8.000 m²
+Larghezza di taglio 42" Accel Deep (107 cm)
+Potenza 14,9 kW3.050 giri/min
+Velocità Fino a 10,8 km/h (6,7 mph)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z740R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z740r/</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\Z345R.jpg</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z345r/</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>X584</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>X167</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5569</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Se state cercando prestazioni affidabili e semplicità di operazione, allora dovreste considerare il modello X167. Il modello X167 è un piacere da guidare grazie alla stazione operatore ergonomica con comandi codificati a colori, al sedile regolabile per una guida più fluida e alla possibilità di selezionare diverse velocità di avanzamento. Il tutto poggia su un telaio in acciaio interamente saldato e su un assale frontale in ghisa costruiti per garantire anni di servizio affidabile. L'X167 assicura una gestione semplice e un utilizzo piacevole.</t>
+          <t>11287</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>Potenza e prestazioni straordinarie
+Telaio saldato rinforzato
+4 ruote sterzanti
+Sollevamento idraulico del piatto
+Specifications
+John Deere X584 Trattorini
+Motore - Potenza A 3350 giri/min, 16,1 kW
+Motore -  Produttore/Modello FS730V
+Tipo di gruppo cambio/differenziale K72 idrostatico integrato con trasmissione
+Transasse - Comando Pedali Twin Touch™
+Pneumatici posteriori 24x9,5-12 per manto erboso
+Tipo sistema di sollevamento Potenza idraulica
+Larghezza di taglio 122, 137 cm48, 54 in.
+Garanzia
+Cambio olio
+Potenza A 3.350 giri/min, 16,1 kW
+Cilindrata 726 cc44,3 cu in.
+Produttore/Modello FS730V
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Accoppiati a V, rivestimenti in ghisa
+Regolatore Meccanico
+Comando velocità/starter Leve separate, ritorno starter automatico
+Impianto di raffreddamento Aria
+Filtro aria A secco, sostituibile con schiuma predetergente
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Indicatore su cruscotto
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Sul parafango sinistro, 7,6 cm3 in.
+Capacità serbatoio carburante 16,7 L4,4 U.S. gal.
+Batteria 12 V340 CCA
+Sistema di carica Alternatore a volano, regolato, 15 amp
+Motorino di avviamento motore Elettrico
+Contaore Sì
+Fari anteriori Due standard
+Luci di coda o catarinfrangente Catarifrangenti
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V Sì
+Tipo K72 idrostatico integrato con trasmissione
+Comando Pedali Twin Touch™
+CruiseControl Sì, leva sul cruscotto
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, sostituibile
+Bloccaggio del differenziale Standard
+Velocità di avanzamento 0-11,6 km/h0-7,2 mph
+Velocità di retromarcia 0-8,4 km/h0-5,2 mph
+Freni Disco interno in bagno d'olio
+Telaio Saldato rinforzato
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso Standard anteriore e posteriore – Ciascuna sostiene fino a quattro pesi Quik-Tatch™, 19 kg42 lb
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini In metallo, sostituibili
+Pneumatici anteriori 16x6,5-8 per manto erboso
+Pneumatici posteriori 24x9,5-12 per manto erboso
+Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca.
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Gomma antiscivolo
+Vano portaoggetti Sì, cassetta portattrezzi sotto il sedile e coperta
+Etichetta adesiva con intervalli di manutenzione Sì
+Maniglie/impugnature parafango Impugnature
+Portatazza Sì
+Montaggio attrezzatura Sì, rinforzato
+Tipo Alimentazione, quattro ruote sterzanti
+Sterzo sulle quattro ruote Sì
+Volante 35,6 cm14 in.
+Volante inclinabile No
+Raggio di sterzata 48,3 cm19 in.
+Raggio cerchio non tagliato 48A, 38 cm15 in.54A, 30 cm12 in.
+Tipo Schienale alto personalizzato
+Altezza schienale 53 cm21 in.
+Braccioli Opzionali
+Regolazione longitudinale Con operatore seduto, guida di scorrimento, 15 posizioni, 17 cm6,6 in.
+Sospensione del sedile Due molle a spirale, regolazione in tre posizioni senza attrezzi in base al peso dell'operatore
+Tipo Potenza idraulica
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita Sì
+Tipo Scarico laterale
+Larghezza di taglio 122, 137 cm48, 54 in.
+Struttura Cassa del piatto in acciaio stampato
+Materiale piatto di taglio 10 gauge3,4 mm0,135 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba Cinghia in linea, PTO elettrica
+Ruote tosaerba Quattro
+Regolazione ruote tosaerba Perno caricato a molla, sette posizioni
+Regolazione livello del tosaerba Condotti di regolazione di precisione Exact Adjust e volantino di livellamento del piatto a bordo
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Fissati in due punti con spine elastiche
+Bracci delle parallele posteriori Perni a J caricati a molla
+Rotazione ruote tosaerba Sì, 90 gradi per una semplice rimozione del tosaerba
+Sistema di trasmissione Cinghia doppia
+Conforme agli standard ANSI Sì
+Conforme agli standard OPEI Sì
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza
+Note Transaxle rinforzato per trattorino da giardinoServosterzo e sollevamento idraulico praticiQuattro ruote sterzanti standard per manovrabilità e precisione di taglio di livello superiore
+Garanzia
+Tosaerba 48A e 54A
+Raccoglierba posteriore
+Raccoglierba motorizzato Soffiatore Power Flow™
+Sistema di pacciamatura Sì
+Strigliatore anteriore
+Lama anteriore 122 cm48 in.
+Lama intermedia
+Turbina da neve 119 cm47 in.
+Spazzola rotativa
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Traino posteriore, 80 kg175 lb
+Paraurti anteriore Paraurti/contrappeso anteriore standard
+Protezione spazzola Sì
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature Staffa per peso posteriore
+Strumenti con traino posteriore
+Altezza 132,7 cm52,25 in.
+Lunghezza totale 201 cm79 in.
+Passo 130 cm51,2 in.
+Larghezza con il tosaerba 48A: 159 cm62,5 in.54A: 174 cm68,4 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 48A: 136 cm53,6 in.54A: 151 cm59,4 in.
+Larghezza senza il tosaerba 114,3 cm45 in.
+Peso Tosaerba 48A, senza carburante: 380 kg838 lbTosaerba 54A, senza carburante: 384 kg846 lb
+Posizione produzione Horicon (Wisconsin), USA
+Dati Raccolti 27 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X167.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x167/</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X584.jpg</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x500/x584/</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>Z545R</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>X167R</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>5996</t>
-        </is>
-      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>L'X167R è la macchina di punta con sistema di raccolta posteriore automatico che garantisce una finitura perfetta per i giardini di dimensioni più grandi. Essa unisce affidabilità, durata e maggiore potenza in ogni aspetto della sua costruzione, incluso un telaio in acciaio completamente saldato e un assale anteriore in ghisa. A ciò si aggiunge una stazione operatore ergonomica, fari di alta qualità e la possibilità di selezionare diverse velocità di avanzamento, per una cura del prato professionale.</t>
+          <t>9797</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>Facile da guidare
+Manovrabilità eccezionale
+Struttura robusta
+Velocità di taglio elevate: 14,5 km/h
+Motore da 15,3 kW, 724cc
+Piatto ad alta capacità da 122 cm (48“)
+Specifiche
+John Deere Z545R Trattorini
+Dimensioni area Oltre 8.000 m²
+Larghezza di taglio 48" ad alta capacità (122 cm)
+Potenza 16,1 kW / 3350 rpm
+Velocità Fino a 14,5 km/h (9 mph)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X167R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x167r/</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\Z545R.jpg</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z545r/</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>X590</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Z515E</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>7566</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Dotato di un robusto telaio, lo Z515E garantisce un funzionamento confortevole e affidabile. Con un potente motore bicilindrico da 13,4 kW e il piatto tosaerba da 122 cm (48''), offre prestazioni eccellenti e può essere facilmente convertito in modalità mulching o raccolta grazie ai kit aggiuntivi opzionali. Lo Z515E è la scelta perfetta per le superfici ampie, dove velocità ed efficienza sono fattori fondamentali per semplificare il lavoro.</t>
+          <t>11145</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>Potenza e prestazioni straordinarie
+Telaio saldato rinforzato
+Servosterzo
+Sollevamento idraulico del piatto
+Specifications
+John Deere X590 Trattorini
+Motore - Potenza A 3250 giri/min, 16,7 kW
+Motore -  Produttore/Modello FS730 EFI
+Tipo di gruppo cambio/differenziale K72 idrostatico integrato con trasmissione
+Transasse - Comando Pedali Twin Touch™
+Pneumatici posteriori 24x12-12 per manto erboso
+Tipo sistema di sollevamento Potenza idraulica
+Larghezza di taglio 122, 137 cm48, 54 in.
+Garanzia
+Cambio olio
+Potenza A 3.250 giri/min, 16,7 kW
+Cilindrata 726 cc44,3 cu in.
+Produttore/Modello FS730 EFI
+Tipo Impianto di iniezione elettronica (EFI), valvola in testa (OHV). Lubrificazione a piena pressione, filtro dell'olio
+Cilindri Accoppiati a V, rivestimenti in ghisa
+Regolatore Comando elettronico acceleratore a velocità costante
+Comando velocità/starter EFI, starter non necessario
+Impianto di raffreddamento Aria
+Filtro aria A secco, sostituibile con schiuma predetergente
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Impianto di iniezione elettronica (EFI) a circuito aperto
+Indicatore livello carburante Indicatore su cruscotto
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Sul parafango sinistro, 7,6 cm3 in.
+Capacità serbatoio carburante 16,7 L4,4 U.S. gal.
+Batteria 12 V500 CCA
+Sistema di carica Alternatore a volano, regolato, 15 amp
+Motorino di avviamento motore Componenti elettronici
+Contaore Sì
+Fari anteriori Due standard
+Luci di coda o catarinfrangente Catarifrangenti
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V Sì
+Tipo K72 idrostatico integrato con trasmissione
+Comando Pedali Twin Touch™
+CruiseControl Sì, leva sul cruscotto
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, sostituibile
+Bloccaggio del differenziale Standard
+Velocità di avanzamento 0-11,6 km/h0-7,2 mph
+Velocità di retromarcia 0-8,4 km/h0-5,2 mph
+Freni Disco interno in bagno d'olio
+Telaio Saldato rinforzato
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso Standard anteriore e posteriore – Ciascuna sostiene fino a quattro pesi Quik-Tatch™, 19 kg42 lb
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini In metallo, sostituibili
+Pneumatici anteriori 16x6,5-8 per manto erboso
+Pneumatici posteriori 24x12-12 per manto erboso
+Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca.
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Gomma antiscivolo
+Vano portaoggetti Sì, cassetta portattrezzi sotto il sedile e coperta
+Etichetta adesiva con intervalli di manutenzione Sì
+Maniglie/impugnature parafango Impugnature
+Portatazza Sì
+Montaggio attrezzatura Sì, rinforzato
+Tipo Alimentazione, sterzatura a due ruote
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante 35,6 cm14 in.
+Volante inclinabile Standard, cinque posizioni
+Raggio di sterzata 55,9 cm22 in.
+Raggio cerchio non tagliato 48A, 68,6 cm27 in.54A, 61 cm24 in.
+Tipo Schienale alto personalizzato
+Altezza schienale 53 cm21 in.
+Braccioli Opzionali
+Regolazione longitudinale Con operatore seduto, guida di scorrimento, 15 posizioni, 17 cm6,6 in.
+Sospensione del sedile Due molle a spirale, regolazione in tre posizioni senza attrezzi in base al peso dell'operatore
+Tipo Potenza idraulica
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita Sì
+Tipo Scarico laterale
+Larghezza di taglio 122, 137 cm48, 54 in.
+Struttura Cassa del piatto in acciaio stampato
+Materiale piatto di taglio 10 gauge3,4 mm0,135 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba Cinghia in linea, PTO elettrica
+Ruote tosaerba Quattro
+Regolazione ruote tosaerba Perno caricato a molla, sette posizioni
+Regolazione livello del tosaerba Condotti di regolazione di precisione Exact Adjust e volantino di livellamento del piatto a bordo
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Fissati in due punti con spine elastiche
+Bracci delle parallele posteriori Perni a J caricati a molla
+Rotazione ruote tosaerba Sì, 90 gradi per una semplice rimozione del tosaerba
+Sistema di trasmissione Cinghia doppia
+Conforme agli standard ANSI Sì
+Conforme agli standard OPEI Sì
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza
+Note Transaxle rinforzato per trattorino da giardinoServosterzo e sollevamento idraulico praticiStaffe per pesi anteriori e posteriori integrate
+Garanzia
+Tosaerba 48A e 54A
+Raccoglierba posteriore
+Raccoglierba motorizzato Soffiatore Power Flow™
+Sistema di pacciamatura Sì
+Strigliatore anteriore
+Lama anteriore 122 cm48 in.
+Lama intermedia
+Turbina da neve 119 cm47 in.
+Spazzola rotativa
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Traino posteriore, 80 kg175 lb
+Paraurti anteriore Paraurti/contrappeso anteriore standard
+Protezione spazzola Sì
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Altezza 132,7 cm52,25 in.
+Lunghezza totale 201 cm79 in.
+Passo 130 cm51,2 in.
+Larghezza con il tosaerba 48A: 159 cm62,5 in.54A: 174 cm68,4 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 48A: 136 cm53,6 in.54A: 151 cm59,4 in.
+Larghezza senza il tosaerba 104,1 cm43 in.
+Peso Tosaerba 48A, senza carburante: 361 kg797 lbTosaerba 54A, senza carburante: 365 kg805 lb
+Posizione produzione Horicon (Wisconsin), USA
+Dati Raccolti 27 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z515E.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z515e/</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X590.jpg</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x500/x590/</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ZTrak™ diesel</t>
+          <t>X167R</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Z994R</t>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Trattorini</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>I nostri tosaerba a raggio di sterzo zero riducono i tempi di lavoro di almeno il 20% rispetto a un tosaerba frontale, permettendo di risparmiare denaro ad ogni utilizzo. Il Z994R combinano un'incredibile manovrabilità ad un motore diesel potente, un piatto ad elevata capacità ed una qualità costruttiva eccellente che garantisce anni di utilizzo affidabile.</t>
+          <t>5996</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Innesto del piatto: elettrico
+Capacità di raccolta: 300 litri
+Sedile: standard a schienale alto
+Kit per mulching: opzionale
+Paraurti: Standard
+Specifiche
+John Deere X167R Trattorini
+Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.050 giri/min (±100): 12,36 kW
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Motore -  Produttore/Modello 40N877 (M40)
+Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
+Transasse - Comando Due pedali affiancati
+Pneumatici posteriori 18x8,5-8
+Tipo sistema di sollevamento Leva dell'impugnatura a molla
+Larghezza di taglio 107 cm42 in.
+Garanzia
+Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.050 giri/min (±100): 12,36 kW
+Cilindrata 656 cc40 cu in.
+Produttore/Modello 40N877 (M40)
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Due a V
+Regolatore Meccanico
+Comando velocità/starter Leva singola con ritorno a molla sullo starter
+Impianto di raffreddamento Aria
+Filtro aria Cartuccia
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Indicatore visivo
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
+Capacità serbatoio carburante 8 L2,1 U.S. gal.
+Batteria 12 V300 CCA
+Sistema di carica Regolato, 8 amp
+Motorino di avviamento motore Tipo Bendix
+Contaore Sì
+Fari anteriori Due standard, a incandescenza
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo Idrostatico, due ruote motrici
+Comando Due pedali affiancati
+CruiseControl No
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, non riparabile
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,4 km/h0-5,2 mph
+Velocità di retromarcia 0-4,8 km/h0-3,0 mph
+Freni Disco a bagno d'olio interno
+Telaio Acciaio saldato su tutta la lunghezza
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso No
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 18x8,5-8
+Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Sì, con canalette per i detriti
+Vano portaoggetti Vano portaoggetti con coperchio
+Etichetta adesiva con intervalli di manutenzione No
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura CargO Mount™ anteriore
+Tipo Manuale, sterzatura a due ruote
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante Diametro modello Deluxe: 35,6 cm14 in.
+Volante inclinabile No
+Raggio di sterzata 55,2 cm21,75 in.
+Raggio cerchio non tagliato 71,1 cm28 in.
+Tipo Monoblocco
+Altezza schienale 38 cm15 in.
+Braccioli No
+Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
+Sospensione del sedile Inclinabile, due molle a spirale
+Tipo Leva dell'impugnatura a molla
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita No
+Tipo Scarico posteriore
+Larghezza di taglio 107 cm42 in.
+Struttura Cassa del piatto in acciaio stampato
+Materiale piatto di taglio Acciaio, 11 gauge3 mm0,120 in.
+Presa di lavaggio del tosaerba Sì, due
+Sistema di trasmissione tosaerba PTO elettrica
+Ruote tosaerba Quattro
+Regolazione ruote tosaerba Un bullone
+Regolazione livello del tosaerba Piatto con livellamento semplice
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Clip a molla
+Bracci delle parallele posteriori Due clip a molla
+Rotazione ruote tosaerba No
+Sistema di trasmissione Cinghia singola
+Conforme agli standard ANSI
+Conforme agli standard OPEI
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza No
+Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice in polvere duraturiVolante Deluxe per lavorare più comodamente: 36 cm14 in.
+Garanzia
+Tosaerba
+Raccoglierba posteriore 300 L8,5 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura Sì
+Strigliatore anteriore
+Lama anteriore 125 cm49 in.
+Lama intermedia
+Turbina da neve
+Spazzola rotativa 120 cm47 in.
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Solo traino posteriore, 80 kg175 lb
+Paraurti anteriore Incluso
+Protezione spazzola
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Altezza 102 cm40 in.
+Lunghezza totale 254 cm100 in.
+Passo 124,2 cm48,9 in.
+Larghezza con il tosaerba 111 cm43,7 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento)
+Larghezza senza il tosaerba
+Peso Con piatto tosaerba, senza carburante: 246 kg542 lb
+Posizione produzione
+Dati Raccolti 30 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z994R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba-professionali/tosaerba-a-raggio-di-sterzata-zero/z994r/</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X167R.jpg</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x167r/</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>Z530M</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Z345R</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>6282</t>
-        </is>
-      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dotato del nostro potente ed efficiente motore bicilindrico OHV da 14,9 kW, lo Z345R è garanzia di prestazioni elevate, velocità e affidabilità, e vi offre una serie di funzionalità aggiuntive per un maggiore comfort. Le leve di comando intuitive sono garanzia di una grande facilità d'uso, mentre il piatto tosaerba da 107 cm (42'') regala elevate prestazioni e consente di passare facilmente alla modalità mulching o raccolta, grazie ai kit aggiuntivi opzionali. Lo Z345R è dotato inoltre di un sistema di sollevamento a pedale che vi consente di cambiare l'altezza di taglio durante il funzionamento. Apprezzerete sicuramente le leve di comando, dalla perfetta ergonomia, e il comodo sedile premium a schienale alto.</t>
+          <t>8459</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>Facile da guidare
+Manovrabilità eccezionale
+Struttura robusta
+Velocità di taglio elevate: 12,9 km/h
+Motore da 16,7 kW, 726cc
+Piatto Accel Deep™ da 122 cm (48“)
+Specifiche
+John Deere Z530M Trattorini
+Dimensioni area Oltre 8.000 m²
+Larghezza di taglio 48" Accel Deep (122 cm)
+Potenza 16,7 kW (22,4 CV) a 3.350 giri/min*
+Velocità Fino a 13,7 km/h8,5 mph</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z345R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z345r/</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\Z530M.jpg</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z530m/</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>X147R</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>X590</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>11145</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Prezzo</t>
+          <t>5313</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
+          <t>Innesto del piatto: elettrico
+Capacità di raccolta: 300 litri
+Sedile: standard a schienale alto
+Kit per mulching: opzionale
+Paraurti: opzionale
+Specifiche
+John Deere X147R Trattorini
+Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3050 giri/min (±100): 12,36 kW
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Motore -  Produttore/Modello 40N877 (M40)
+Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
+Transasse - Comando Due pedali affiancati
+Pneumatici posteriori 18x8,5-8
+Tipo sistema di sollevamento Leva dell'impugnatura a molla
+Larghezza di taglio 92 cm36 in.
+Garanzia
+Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3050 giri/min (±100): 12,36 kW
+Cilindrata 656 cc40 cu in.
+Produttore/Modello 40N877 (M40)
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Due a V
+Regolatore Meccanico
+Comando velocità/starter Leva singola con ritorno a molla sullo starter
+Impianto di raffreddamento Aria
+Filtro aria Cartuccia
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Vetro spia
+Posizione del serbatoio carburante Retro
+Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
+Capacità serbatoio carburante 8 L2,1 U.S. gal.
+Batteria 12 V300 CCA
+Sistema di carica Regolato, 8 amp
+Motorino di avviamento motore Tipo Bendix
+Contaore Sì
+Fari anteriori Due standard, a incandescenza
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo Idrostatico, due ruote motrici
+Comando Due pedali affiancati
+CruiseControl No
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, non riparabile
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,4 km/h0-5,2 mph
+Velocità di retromarcia 0-4,8 km/h0-3,0 mph
+Freni Interni a disco a bagno d'olio
+Telaio Acciaio saldato su tutta la lunghezza
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso No
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 18x8,5-8
+Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Sì, con canalette per i detriti
+Vano portaoggetti Vano portaoggetti (copertura opzionale disponibile)
+Etichetta adesiva con intervalli di manutenzione No
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura CargO Mount™ anteriore
+Massima capacità di traino 227 K500 lb
+Tipo Manuale, sterzatura a due ruote
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante Diametro modello standard: 30,5 cm12 in.
+Volante inclinabile No
+Raggio di sterzata 55,2 cm21,75 in.
+Raggio cerchio non tagliato 68,6 cm27 in.
+Tipo Monoblocco
+Altezza schienale 38 cm15 in.
+Braccioli No
+Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
+Sospensione del sedile Inclinabile, due sospensioni a molla
+Tipo Leva dell'impugnatura a molla
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-9 cm1-3,5 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita No
+Tipo Scarico posteriore
+Larghezza di taglio 92 cm36 in.
+Struttura Cassa del piatto tosaerba in acciaio stampato
+Materiale piatto di taglio Acciaio, 12 gauge2,7 mm0,105 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba PTO elettrica
+Ruote tosaerba Zero
+Regolazione ruote tosaerba Un bullone
+Regolazione livello del tosaerba Piatto con livellamento semplice
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Clip a molla
+Bracci delle parallele posteriori Due clip a molla
+Rotazione ruote tosaerba No
+Sistema di trasmissione Cinghia singola
+Conforme agli standard ANSI
+Conforme agli standard OPEI
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza No
+Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice a polvere duraturiTelaio in acciaio interamente saldato
+Garanzia
+Tosaerba
+Raccoglierba posteriore 300 L8,5 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura Sì
+Strigliatore anteriore
+Lama anteriore 125 cm49 in.
+Lama intermedia
+Turbina da neve
+Spazzola rotativa 120 cm47 in.
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Solo trainato, 80 kg175 lb
+Paraurti anteriore Paraurti anteriore sagomato
+Protezione spazzola
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Altezza 1118 mm44 in.
+Lunghezza totale 2440 mm96 in.
+Passo 1242 mm48,9 in.
+Larghezza con il tosaerba 960 mm37,8 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento)
+Larghezza senza il tosaerba 996 mm39,2 in.
+Peso Con piatto tosaerba, senza carburante: 239 kg528 lb
+Posizione produzione Greeneville, Tennessee, USA
+Dati Raccolti 1-nov-2021</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X590.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x500/x590/</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X147R.jpg</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x147r/</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>X167</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Z545R</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>9797</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Progettato per un'esperienza d'uso straordinaria nel settore residenziale, il tosaerba Z545R a raggio di sterzata zero offre livelli superiori di potenza e prestazioni. Il piatto tosaerba da 122 cm (48'') ad alta capacità consente di gestire facilmente volumi elevati di erba, anche grazie a un motore bicilindrico da 15,3 kW con iniezione elettrica (EFI) e comando elettronico dell'accelerazione, per un'esperienza d'uso più confortevole ed efficiente. Può essere facilmente convertito per le attività di mulching o raccolta con l'aggiunta di kit opzionali. Il robusto telaio dello Z545R è garanzia di un funzionamento affidabile, mentre il sedile con schienale alto e la piattaforma operatore isolata offrono un comfort straordinario, con ampio spazio per le gambe e generosi vani portaoggetti.</t>
+          <t>5569</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>Innesto del piatto: elettrico
+Sedile: schienale alto aperto
+Copertura per mulching: Standard
+Cruise control: Standard
+Sistema di raccolta: opzionale
+Paraurti: Standard
+Specifiche
+John Deere X167 Trattorini
+Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3350 giri/min (±100): 15 kW
+Cambio olio Sistema per cambio olio in 30 secondi Easy Change™ John Deere
+Motore -  Produttore/Modello 44N677 (M44)
+Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
+Transasse - Comando Due pedali affiancati
+Pneumatici posteriori 22x9,5-12
+Tipo sistema di sollevamento Leva dell'impugnatura a molla
+Larghezza di taglio 122 cm48 in.
+Garanzia
+Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3350 giri/min (±100): 15 kW
+Cilindrata 724 cc44,2 cu in.
+Produttore/Modello 44N677 (M44)
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, sistema per cambio olio in 30 secondi Easy Change
+Cilindri Due a V
+Regolatore Meccanico
+Comando velocità/starter Leva singola con ritorno a molla sullo starter
+Impianto di raffreddamento Aria
+Filtro aria Cartuccia
+Cambio olio Sistema per cambio olio in 30 secondi Easy Change John Deere
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Sul cruscotto
+Posizione del serbatoio carburante Retro
+Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
+Capacità serbatoio carburante 9 L2,4 U.S. gal.
+Batteria 12 V300 CCA
+Sistema di carica Regolato, 8 amp
+Motorino di avviamento motore Tipo Bendix
+Contaore Sì
+Fari anteriori Due standard, a incandescenza
+Luci di coda o catarinfrangente Catarifrangenti
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo Idrostatico, due ruote motrici
+Comando Due pedali affiancati
+CruiseControl Sì
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, non riparabile
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,9 km/h0-5,5 mph
+Velocità di retromarcia 0-5,2 km/h0-3,2 mph
+Freni Interni a disco a bagno d'olio
+Telaio Acciaio saldato su tutta la lunghezza
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso No
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 16x6,5-8
+Pneumatici posteriori 22x9,5-12
+Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Sì, con canalette per i detriti
+Vano portaoggetti Vano portaoggetti con coperchio
+Etichetta adesiva con intervalli di manutenzione No
+Maniglie/impugnature parafango Impugnature
+Portatazza Sì
+Montaggio attrezzatura CargO Mount™
+Massima capacità di traino 227 kg500 lb
+Tipo Manuale, sterzatura a due ruote
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante Diametro modello Deluxe: 35,6 cm14 in.
+Volante inclinabile No
+Raggio di sterzata 45,7 cm18 in.
+Raggio cerchio non tagliato 50,8 cm20 in.
+Tipo Due pezzi
+Altezza schienale 38 cm15 in.
+Braccioli No
+Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
+Sospensione del sedile Inclinabile, due sospensioni a molla
+Tipo Leva dell'impugnatura a molla
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita No
+Tipo Scarico laterale
+Larghezza di taglio 122 cm48 in.
+Struttura Cassa del piatto tosaerba in acciaio stampato
+Materiale piatto di taglio Acciaio, 12 gauge2,7 mm0,105 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba PTO elettrica
+Ruote tosaerba Quattro
+Regolazione ruote tosaerba Un bullone
+Regolazione livello del tosaerba Piatto con livellamento semplice
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Spina elastica
+Bracci delle parallele posteriori Due clip a molla
+Rotazione ruote tosaerba No
+Sistema di trasmissione Cinghia singola
+Conforme agli standard ANSI
+Conforme agli standard OPEI
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza No
+Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice a polvere duraturiVolante Deluxe per lavorare più comodamente: 36 cm14 in.
+Garanzia
+Tosaerba
+Raccoglierba posteriore A due cesti, 230 L6,5 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura Coperchio per mulching
+Strigliatore anteriore
+Lama anteriore 125 cm49 in.
+Lama intermedia
+Turbina da neve
+Spazzola rotativa 120 cm47 in.
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Solo trainato, 80 kg175 lb
+Paraurti anteriore Incluso
+Protezione spazzola
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature Staffa per zavorra posteriore
+Strumenti con traino posteriore
+Altezza 1143 mm45 in.
+Lunghezza totale 1918 mm75,5 in.
+Passo 1242 mm48,9 in.
+Larghezza con il tosaerba 1544 mm60,8 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 1313 mm51,7 in.
+Larghezza senza il tosaerba 996 mm39,2 in.
+Peso Con piatto tosaerba, senza carburante: 228 kg503 lb
+Posizione produzione Greeneville, Tennessee, USA
+Dati Raccolti 1-nov-2021</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z545R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z545r/</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X167.jpg</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x167/</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>Z335E</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>X584</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>11287</t>
-        </is>
-      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Prezzo</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
+          <t>Facile da guidare
+Manovrabilità eccezionale
+Struttura robusta
+Velocità di taglio elevate: 10,8 km/h
+Motore da 12,3 kW, 656cc
+Piatto Accel Deep™ da 107 cm (42“)
+Specifications
+John Deere Z335E Trattorini
+Dimensioni area fino a 8.000 m²
+Larghezza di taglio 42" Accel Deep (107 cm)
+Potenza 12,3 kW a 3.050 giri/min
+Velocità Fino a 10,8 km/h (6,7 mph)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X584.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x500/x584/</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\Z335E.jpg</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z335e/</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>Z515E</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>X380</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>8857</t>
-        </is>
-      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>L'X380 è un campione di produttività e comfort Un pratico regolatore consente di impostare con precisione l'altezza di taglio per incrementi di 6 mm, stando comodamente seduti in posizione di guida. Apprezzerete il chiaro display, di tipo automobilistico, i comandi dispositi con perfetta economia e i pratici pedali Twin Touch™ che comandano la trasmissione idrostatica, per controllare direzione e velocità con precisione senza dover alzare il piede dalla piattaforma.</t>
+          <t>7566</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>Facile da guidare
+Manovrabilità eccezionale
+Struttura robusta
+Velocità di taglio elevate: 12,9 km/h
+Motore da 13,4 kW, 724cc
+Piatto Accel Deep™ da 122 cm (48“)
+Specifiche
+John Deere Z515E Trattorini
+Dimensioni area Oltre 8.000 m²
+Larghezza di taglio 48" Accel Deep (122 cm)
+Potenza 13,4 kW (18,0) a 3.350 giri/min*
+Velocità Fino a 13,7 km/h (8,5 mph)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X380.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x380/</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\Z515E.jpg</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z515e/</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>X370</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>X107</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>3490</t>
-        </is>
-      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Il trattore X107 non ha rivali nel rapporto qualità-prezzo. È dotato di trasmissione idrostatica, un potente motore con valvola in testa e un piatto tosaerba 42 Edge (107cm / 42") equipaggiato per lo scarico laterale, il mulching o il cesto di raccolta. Sono inoltre disponibili numerosi equipaggiamenti opzionali per altre operazioni di cura del prato e per la movimentazione della neve.</t>
+          <t>7858</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>Innesto del piatto: elettrico
+Pedali Twin Touch
+Cruise Control
+Servosterzo idraulico, 2 ruote sterzanti
+Specifications
+John Deere X370 Trattorini
+Motore - Potenza A 3100 giri/min, 14,1 kW
+Motore -  Produttore/Modello FR651V
+Tipo di gruppo cambio/differenziale K57 idrostatico integrato con trasmissione
+Transasse - Comando Pedali Twin Touch™
+Pneumatici posteriori 20x10-8
+Tipo sistema di sollevamento Potenza idraulica
+Larghezza di taglio 107 cm42 in.
+Garanzia
+Cambio olio
+Potenza A 3100 giri/min, 14,1 kW
+Cilindrata 726 cc44,3 cu in.
+Produttore/Modello FR651V
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Accoppiati a V, rivestimenti in ghisa
+Regolatore Meccanico
+Comando velocità/starter Leve separate, ritorno starter automatico
+Impianto di raffreddamento Aria
+Filtro aria A secco, sostituibile
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Indicatore su cruscotto
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Sul parafango sinistro, 7,6 cm3 in.
+Capacità serbatoio carburante 12,5 L3,3 U.S. gal.
+Batteria 12 V340 CCA
+Sistema di carica Alternatore a volano, regolato, 12 amp
+Motorino di avviamento motore Bendix
+Contaore Sì
+Fari anteriori Due standard
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo K57 idrostatico integrato con trasmissione
+Comando Pedali Twin Touch™
+CruiseControl Sì, leva sul cruscotto
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, interno, sostituibile
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,6 km/h0-5,3 mph
+Velocità di retromarcia 0-4,9 km/h0-3 mph
+Freni Disco interno a bagno d'olio
+Telaio Saldato rinforzato
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso Opzionale anteriore e opzionale posteriore, ciascuna sostiene fino a due pesi Quik-Tatch™, 19 kg42 lb
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini In metallo, sostituibili
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 20x10-8
+Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Gomma antiscivolo
+Vano portaoggetti Sì, cassetta portattrezzi sotto il sedile e coperta
+Etichetta adesiva con intervalli di manutenzione Sì
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura Sì, rinforzato
+Tipo Potenza idraulica
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante 35,6 cm14 in.
+Volante inclinabile No
+Raggio di sterzata 55,9 cm22 in.
+Raggio cerchio non tagliato 42A: 76,2 cm30 in.42M a destra: 68,6 cm27 in.42M a sinistra: 78,7 cm31 in.
+Tipo Schienale alto personalizzato
+Altezza schienale 46 cm18 in.
+Braccioli Opzionali
+Regolazione longitudinale Con operatore seduto, guida di scorrimento, 15 posizioni, 17 cm6,6 in.
+Sospensione del sedile Due molle a spirale, regolazione in tre posizioni senza attrezzi in base al peso dell'operatore
+Tipo Potenza idraulica
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita Sì
+Tipo Opzioni scarico laterale e mulching
+Larghezza di taglio 107 cm42 in.
+Struttura Cassa del piatto di taglio in acciaio stampato
+Materiale piatto di taglio 12 gauge2,7 mm0,105 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba Cinghia in linea, PTO elettrica
+Ruote tosaerba Due
+Regolazione ruote tosaerba A quattro posizioni, richiesto attrezzo
+Regolazione livello del tosaerba Condotti di regolazione di precisione e volantino di livellamento del piatto di taglio a bordo
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Fissati in due punti con spine elastiche
+Bracci delle parallele posteriori Due perni e fermagli elastici
+Rotazione ruote tosaerba No
+Sistema di trasmissione Cinghia singola: 42ACinghia doppia: 42M
+Conforme agli standard ANSI Sì
+Conforme agli standard OPEI Sì
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza
+Note Sollevatore idraulico per comodità e semplicità d'uso maggioriServosterzo per manovrabilità e comfort eccezionali
+Garanzia
+Raccoglierba posteriore 42A: 2 sacchi, 250 L7 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura 42A: Kit per mulching standard
+Strigliatore anteriore
+Lama anteriore 112 cm44 in.
+Lama intermedia
+Turbina da neve 112 cm44 in.
+Spazzola rotativa
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Traino posteriore, 80 kg175 lb
+Paraurti anteriore Opzione paraurti sagomato
+Protezione spazzola Sì
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Tosaerba
+Altezza 124 cm49 in.
+Lunghezza totale 182,9 cm72 in.
+Passo 125,5 cm49,4 in.
+Larghezza con il tosaerba 42A: 128 cm50,5 in.42M: 112 cm44 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 42A: 131 cm51,4 in.
+Larghezza senza il tosaerba 96,5 cm38 in.
+Peso Piatto tosaerba 42A, senza carburante: 261 kg575 lbPiatto tosaerba 42M, senza carburante: 270 kg595 lb
+Posizione produzione Horicon (Wisconsin), USA
+Dati Raccolti 27 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X107.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x107/</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X370.jpg</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x370/</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>X117R</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>X370</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>7858</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>L'X370 aggiunge un livello extra di comfort con il il servosterzo e il sollevamento idraulico del piatto. Apprezzerete il suo display, chiaro e moderno, di tipo automobilistico, i comandi disposti con perfetta ergonomia e i pratici pedali Twin Touch™ che comandano la trasmissione. La cura del vostro prato sarà un lavoro più semplice e piacevole che mai con l'X370.</t>
+          <t>4404</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
+          <t>Innesto del piatto: meccanico
+Capacità di raccolta: 300 litri
+Sedile: Standard
+Kit per mulching: opzionale
+Paraurti: opzionale
+Specifiche
+John Deere X117R Trattorini
+Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.100 giri/min (±100): 10,84 kW
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Motore -  Produttore/Modello 31R977 (M31)
+Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
+Transasse - Comando Due pedali affiancati
+Pneumatici posteriori 18x8,5-8
+Tipo sistema di sollevamento Leva dell'impugnatura a molla
+Larghezza di taglio 92 cm36 in.
+Garanzia
+Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.100 giri/min (±100): 10,84 kW
+Cilindrata 500 cc30,5 cu in.
+Produttore/Modello 31R977 (M31)
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Uno
+Regolatore Meccanico
+Comando velocità/starter Leva singola con ritorno a molla sullo starter
+Impianto di raffreddamento Aria
+Filtro aria Cartuccia
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Indicatore visivo
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
+Capacità serbatoio carburante 8 L2,1 U.S. gal.
+Batteria 12 V300 CCA
+Sistema di carica Regolato, 8 amp
+Motorino di avviamento motore Tipo Bendix
+Contaore Sì
+Fari anteriori Due standard, a incandescenza
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo Idrostatico, due ruote motrici
+Comando Due pedali affiancati
+CruiseControl No
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, non riparabile
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,4 km/h0-5,2 mph
+Velocità di retromarcia 0-4,8 km/h0-3,0 mph
+Freni Disco a bagno d'olio interno
+Telaio Acciaio saldato su tutta la lunghezza
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso No
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 18x8,5-8
+Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Sì, con canalette per i detriti
+Vano portaoggetti No
+Etichetta adesiva con intervalli di manutenzione No
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura CargO Mount™ anteriore
+Tipo Manuale, sterzatura a due ruote
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante Diametro modello standard: 30,5 cm12 in.
+Volante inclinabile No
+Raggio di sterzata 55,2 cm21,75 in.
+Raggio cerchio non tagliato 68,6 cm27 in.
+Tipo Monoblocco
+Altezza schienale 28 cm11 in.
+Braccioli No
+Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
+Sospensione del sedile Inclinabile, due molle a spirale
+Tipo Leva dell'impugnatura a molla
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-9 cm1-3,5 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita No
+Tipo Scarico posteriore
+Larghezza di taglio 92 cm36 in.
+Struttura Cassa del piatto in acciaio stampato
+Materiale piatto di taglio Acciaio, 12 gauge2,7 mm0,105 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba PTO manuale
+Ruote tosaerba Zero
+Regolazione ruote tosaerba Un bullone
+Regolazione livello del tosaerba Piatto con livellamento semplice
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Spina elastica
+Bracci delle parallele posteriori Due clip a molla
+Rotazione ruote tosaerba No
+Sistema di trasmissione Cinghia singola
+Conforme agli standard ANSI
+Conforme agli standard OPEI
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza No
+Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice in polvere duraturiTelaio in acciaio interamente saldato
+Garanzia
+Tosaerba
+Raccoglierba posteriore 300 L8,5 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura Sì
+Strigliatore anteriore
+Lama anteriore 125 cm49 in.
+Lama intermedia
+Turbina da neve
+Spazzola rotativa 120 cm47 in.
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Solo traino posteriore, 80 kg175 lb
+Paraurti anteriore Paraurti anteriore sagomato
+Protezione spazzola
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Altezza 103 cm40,6 in.
+Lunghezza totale 244 cm96 in.
+Passo 124,2 cm48,9 in.
+Larghezza con il tosaerba 96 cm37,8 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento)
+Larghezza senza il tosaerba
+Peso Con piatto tosaerba, senza carburante: 234 kg516 lb
+Posizione produzione
+Dati Raccolti 30 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X370.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x370/</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X117R.jpg</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x117r/</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>X107</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>X350R</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>7359</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Desiderate un trattorino tagliaerba con cesto di raccolta posteriore? L'X350R vi offre questa funzionalità aggiuntiva, in un modello di trattorino semplice ed efficiente. Apprezzerete il suo display, chiaro e moderno, di tipo automobilistico, i comandi disposti con perfetta ergonomia e i pratici pedali Twin Touch™ che comandano la trasmissione idrostatica. Potete scegliere tra una selezione di piatti tosaerba e adattare il vostro X350R ai vostri requisiti specifici.</t>
+          <t>3490</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
+          <t>Innesto del piatto: meccanico
+Sedile: Standard
+Kit per mulching: opzionale
+Sistema di raccolta: opzionale
+Paraurti: opzionale
+Specifiche
+John Deere X107 Trattorini
+Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.200 giri/min (±100): 11,11 kW
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Motore -  Produttore/Modello 31R977 (M31)
+Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
+Transasse - Comando Due pedali affiancati
+Pneumatici posteriori 20x8-8
+Tipo sistema di sollevamento Leva dell'impugnatura a molla
+Larghezza di taglio 107 cm42 in.
+Garanzia
+Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3.200 giri/min (±100): 11,11 kW
+Cilindrata 500 cc30,5 cu in.
+Produttore/Modello 31R977 (M31)
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Uno
+Regolatore Meccanico
+Comando velocità/starter Leva singola con ritorno a molla sullo starter
+Impianto di raffreddamento Aria
+Filtro aria Cartuccia
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Meccanico, visibile dal sedile
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
+Capacità serbatoio carburante 9 L2,4 U.S. gal.
+Batteria 12 V300 CCA
+Sistema di carica Regolato, 8 amp
+Motorino di avviamento motore Tipo Bendix
+Contaore Sì
+Fari anteriori Due standard, a incandescenza
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo Idrostatico, due ruote motrici
+Comando Due pedali affiancati
+CruiseControl No
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, non riparabile
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,9 km/h0-5,5 mph
+Velocità di retromarcia 0-5,2 km/h0-3,2 mph
+Freni Disco a bagno d'olio interno
+Telaio Acciaio saldato su tutta la lunghezza
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso No
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 20x8-8
+Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Sì, con canalette per i detriti
+Vano portaoggetti Vano portaoggetti (copertura opzionale disponibile)
+Etichetta adesiva con intervalli di manutenzione No
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura CargO Mount™
+Tipo Manuale, sterzatura a due ruote
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante Diametro modello standard: 30,5 cm12 in.
+Volante inclinabile No
+Raggio di sterzata 45,7 cm18 in.
+Raggio cerchio non tagliato 63,5 cm25 in.
+Tipo Monoblocco
+Altezza schienale 28 cm11 in.
+Braccioli No
+Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
+Sospensione del sedile Inclinabile, due molle a spirale
+Tipo Leva dell'impugnatura a molla
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita No
+Tipo Scarico laterale
+Larghezza di taglio 107 cm42 in.
+Struttura Cassa del piatto in acciaio stampato
+Materiale piatto di taglio Acciaio, 13 gauge2,3 mm0,090 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba PTO manuale
+Ruote tosaerba Due
+Regolazione ruote tosaerba Un bullone
+Regolazione livello del tosaerba Piatto con livellamento semplice
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Spina elastica
+Bracci delle parallele posteriori Due clip a molla
+Rotazione ruote tosaerba No
+Sistema di trasmissione Cinghia singola
+Conforme agli standard ANSI
+Conforme agli standard OPEI
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza No
+Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice in polvere duraturiTelaio in acciaio interamente saldato
+Garanzia
+Tosaerba
+Raccoglierba posteriore Due sacchi, 230 L6,5 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura Coperchio per mulching o tappo a elevate prestazioni
+Strigliatore anteriore
+Lama anteriore 125 cm49 in.
+Lama intermedia
+Turbina da neve
+Spazzola rotativa 120 cm47 in.
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Solo traino posteriore, 80 kg175 lb
+Paraurti anteriore Paraurti anteriore sagomato
+Protezione spazzola
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature Staffa per peso posteriore
+Strumenti con traino posteriore
+Altezza 102 cm40,2 in.
+Lunghezza totale 177 cm69,7 in.
+Passo 124,2 cm48,9 in.
+Larghezza con il tosaerba 132 cm52 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 118,1 cm46,5 in.
+Larghezza senza il tosaerba
+Peso Con piatto tosaerba, senza carburante: 193 kg425 lb
+Posizione produzione
+Dati Raccolti 30 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\X350R.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x350r/</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X107.jpg</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x107/</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>X350R</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Z335E</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>5534</t>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7359</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>Innesto del piatto: elettrico
+Pedali Twin Touch
+Cruise Control
+Raccolta posteriore
+Specifications
+John Deere X350R Trattorini
+Motore - Potenza A 3100 giri/min, 14,1 kW
+Motore -  Produttore/Modello FR651V
+Tipo di gruppo cambio/differenziale K46 idrostatico integrato con trasmissione
+Transasse - Comando Pedali Twin Touch™
+Pneumatici posteriori 20x10-8
+Tipo sistema di sollevamento Con acceleratore a pedale e supporto a molla non regolabile, kit di supporto a molla regolabile opzionale disponibile (necessario per l'utilizzo della fresa da neve)
+Larghezza di taglio 107 cm42 in.
+Garanzia
+Cambio olio
+Potenza A 3100 giri/min, 14,1 kW
+Cilindrata 726 cc44,3 cu in.
+Produttore/Modello FR651V
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Accoppiati a V, rivestimenti in ghisa
+Regolatore Meccanico
+Comando velocità/starter Leve separate, ritorno starter automatico
+Impianto di raffreddamento Aria
+Filtro aria A secco, sostituibile
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Indicatore su cruscotto
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Sul parafango sinistro, 7,6 cm3 in.
+Capacità serbatoio carburante 7,6 L2 U.S. gal.
+Batteria 12 V340 CCA
+Sistema di carica Alternatore a volano, regolato, 12 amp
+Motorino di avviamento motore Bendix
+Contaore Sì
+Fari anteriori Due standard
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo K46 idrostatico integrato con trasmissione
+Comando Pedali Twin Touch™
+CruiseControl Sì, leva sul cruscotto
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, interno
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,5 km/h0-5,3 mph
+Velocità di retromarcia 0-6,4 km/h0-4 mph
+Freni Disco interno a bagno d'olio
+Telaio Saldato rinforzato
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso Opzionale anteriore – Sostiene fino a quattro pesi Quik-Tatch™, 19 kg42 lb
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 20x10-8
+Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Gomma antiscivolo
+Vano portaoggetti Sì, cassetta portattrezzi sotto il sedile e coperta
+Etichetta adesiva con intervalli di manutenzione Sì
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura Sì, anteriore
+Tipo Manuale, a settore e a pignone
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante 35,6 cm14 in.
+Volante inclinabile No
+Raggio di sterzata 42 cm16,5 in.
+Raggio cerchio non tagliato A destra: 58,4 cm23 in.A sinistra: 71,1 cm28 in.
+Tipo Schienale aperto con impugnatura
+Altezza schienale 38 cm15 in.
+Braccioli No
+Regolazione longitudinale Con operatore seduto, guida di scorrimento, 15 posizioni, 17 cm6,6 in.
+Sospensione del sedile Due molle a spirale, regolazione in tre posizioni senza attrezzi in base al peso dell'operatore
+Tipo Con acceleratore a pedale e supporto a molla non regolabile, kit di supporto a molla regolabile opzionale disponibile (necessario per l'utilizzo della fresa da neve)
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita Sì
+Tipo Scarico posteriore, raccolta posteriore, mulching
+Larghezza di taglio 107 cm42 in.
+Struttura Cassa del piatto di taglio in acciaio stampato
+Materiale piatto di taglio 11 gauge3 mm0,120 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba Frizione della presa di forza (PTO) elettrica con cinghia in linea
+Ruote tosaerba Tre
+Regolazione ruote tosaerba A quattro posizioni, richiesto attrezzo
+Regolazione livello del tosaerba Condotti di regolazione di precisione e volantino di livellamento del piatto di taglio a bordo
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Fissati in due punti con spine elastiche
+Bracci delle parallele posteriori Due perni e fermagli elastici
+Rotazione ruote tosaerba No
+Sistema di trasmissione Cinghia doppia
+Conforme agli standard ANSI Sì
+Conforme agli standard OPEI Sì
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza
+Note Comprende tramoggia posteriore e tappo per mulching, disponibile deflettore posteriore opzionaleIl materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.Primer e finitura con vernice in polvere elettroforetici duraturi
+Garanzia
+Tosaerba Scarico posteriore, raccolta posteriore (standard), 107 cm42 in.
+Raccoglierba posteriore Tramoggia posteriore standard, 300 L8,5 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura Tappo per mulching standard
+Strigliatore anteriore
+Lama anteriore 112 cm44 in.
+Lama intermedia
+Turbina da neve 112 cm44 in.
+Spazzola rotativa
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Traino posteriore, 80 kg175 lb
+Paraurti anteriore Opzione paraurti sagomato
+Protezione spazzola Sì
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Altezza 117 cm46 in.
+Lunghezza totale 251,4 cm99 in.
+Passo 125,5 cm49,4 in.
+Larghezza con il tosaerba 111 cm43,8 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento)
+Larghezza senza il tosaerba 96,5 cm38 in.
+Peso Senza carburante: 293 kg646 lb
+Posizione produzione Horicon (Wisconsin), USA
+Dati Raccolti 27 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z335E.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z335e/</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X350R.jpg</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x350r/</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>X127</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Z530M</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>8459</t>
-        </is>
-      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Cercate un trattorino tosaerba a raggio di sterzata zero che offra un livello di comfort superiore? Lo Z530M è perfetto per l'uso prolungato, grazie alle sue leve di comando dalla perfetta ergonomia, e al comodo sedile premium a schienale alto. Dotato di un robusto telaio, lo Z530M garantisce un funzionamento confortevole e affidabile. Con un potente motore bicilindrico da 16,1 kW e il piatto tosaerba da 122 cm (48''), offre prestazioni straordinarie e può essere facilmente convertito in modalità mulching o raccolta grazie ai kit aggiuntivi opzionali. Lo Z530M è una scelta eccellente per chi desidera prestazioni superiori in termini di efficienza e velocità.</t>
+          <t>4194</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
+          <t>Innesto del piatto: meccanico
+Sedile: schienale alto aperto
+Copertura per mulching: Standard
+Cruise control: Standard
+Sistema di raccolta: opzionale
+Paraurti: opzionale
+Specifiche
+John Deere X127 Trattorini
+Motore - Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3050 giri/min (±100): 12,36 kW
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Motore -  Produttore/Modello 40N877 (M40)
+Tipo di gruppo cambio/differenziale Idrostatico, due ruote motrici
+Transasse - Comando Due pedali affiancati
+Pneumatici posteriori 20x8-8
+Tipo sistema di sollevamento Leva dell'impugnatura a molla
+Larghezza di taglio 107 cm42 in.
+Garanzia
+Potenza Potenza nominale CE (testata in conformità alle norme SAE J1349), a 3050 giri/min (±100): 12,36 kW
+Cilindrata 656 cc40 cu in.
+Produttore/Modello 40N877 (M40)
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Due a V
+Regolatore Meccanico
+Comando velocità/starter Leva singola con ritorno a molla sullo starter
+Impianto di raffreddamento Aria
+Filtro aria Cartuccia
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Sul cruscotto
+Posizione del serbatoio carburante Retro
+Bocchettone di rifornimento carburante Centrale, 4,45 cm1,75 in.
+Capacità serbatoio carburante 9 L2,4 U.S. gal.
+Batteria 12 V300 CCA
+Sistema di carica Regolato, 8 amp
+Motorino di avviamento motore Tipo Bendix
+Contaore Sì
+Fari anteriori Due standard, a incandescenza
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo Idrostatico, due ruote motrici
+Comando Due pedali affiancati
+CruiseControl Sì
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, non riparabile
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,9 km/h0-5,5 mph
+Velocità di retromarcia 0-5,2 km/h0-3,2 mph
+Freni Interni a disco a bagno d'olio
+Telaio Acciaio saldato su tutta la lunghezza
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso No
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 20x8-8
+Materiale del cofano Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammacca
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Sì, con canalette per i detriti
+Vano portaoggetti Vano portaoggetti con coperchio
+Etichetta adesiva con intervalli di manutenzione No
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura CargO Mount™
+Massima capacità di traino 227 kg500 lb
+Tipo Manuale, sterzatura a due ruote
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante Diametro modello standard: 30,5 cm12 in.
+Volante inclinabile No
+Raggio di sterzata 45,7 cm18 in.
+Raggio cerchio non tagliato 63,5 cm25 in.
+Tipo Due pezzi
+Altezza schienale 38 cm15 in.
+Braccioli No
+Regolazione longitudinale A operatore seduto, 14 cm5,5 in.
+Sospensione del sedile Inclinabile, due sospensioni a molla
+Tipo Leva dell'impugnatura a molla
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita No
+Tipo Scarico laterale
+Larghezza di taglio 107 cm42 in.
+Struttura Cassa del piatto tosaerba in acciaio stampato
+Materiale piatto di taglio Acciaio, 13 gauge2,3 mm0,090 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba PTO manuale
+Ruote tosaerba Due
+Regolazione ruote tosaerba Un bullone
+Regolazione livello del tosaerba Piatto con livellamento semplice
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Spina elastica
+Bracci delle parallele posteriori Due clip a molla
+Rotazione ruote tosaerba No
+Sistema di trasmissione Cinghia singola
+Conforme agli standard ANSI
+Conforme agli standard OPEI
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza No
+Note Il materiale stampato in tinta attutisce il rumore, non si arrugginisce e non si ammaccaPrimer e finitura con vernice a polvere duraturiTelaio in acciaio interamente saldato
+Garanzia
+Tosaerba
+Raccoglierba posteriore A due cesti, 230 L6,5 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura Coperchio per mulching o tappo a elevate prestazioni
+Strigliatore anteriore
+Lama anteriore 125 cm49 in.
+Lama intermedia
+Turbina da neve
+Spazzola rotativa 120 cm47 in.
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Solo trainato, 80 kg175 lb
+Paraurti anteriore Paraurti anteriore sagomato
+Protezione spazzola
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature Staffa per zavorra posteriore
+Strumenti con traino posteriore
+Altezza 1118 mm44 in.
+Lunghezza totale 1770 mm69,7 in.
+Passo 1242 mm48,9 in.
+Larghezza con il tosaerba 1402 mm55,2 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 1181 mm46,5 in.
+Larghezza senza il tosaerba 996 mm39,2 in.
+Peso Con piatto tosaerba, senza carburante: 205 kg453 lb
+Posizione produzione Greeneville, Tennessee, USA
+Dati Raccolti 1-nov-2021</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>C:\ImmaginiDanea\jd\Z530M.jpg</t>
+          <t>Macchine</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://www.deere.it/it/tosaerba/trattorini/serie-ztrak/z530m/</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr"/>
+          <t>C:\ImmaginiDanea\jd\X127.jpg</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>https://www.deere.it/it/tosaerba/trattorini/serie-x100/x127/</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>X350</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Trattorini</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>X350</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>6572</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Se cercate un modello semplice ed efficiente di trattorino tagliaerba, l'X350 è la soluzione ideale per voi. Il display moderno, di tipo automobilistico, i comandi disposti con perfetta ergonomia e i pedali di comando Twin Touch™ sono garanzia di un'esperienza d'uso perfetta. Potete scegliere tra diversi piatti tosaerba, per utilizzare l'X350 nel modo più adatto alle vostre esigenze.</t>
-        </is>
-      </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>Innesto del piatto: elettrico
+Pedali Twin Touch
+Cruise Control
+Scelta tra diversi piatti tosaerba
+Specifications
+John Deere X350 Trattorini
+Motore - Potenza A 3100 giri/min, 14,1 kW
+Motore -  Produttore/Modello FR651V
+Tipo di gruppo cambio/differenziale K46 idrostatico integrato con trasmissione
+Transasse - Comando Pedali Twin Touch™
+Pneumatici posteriori 20x10-8
+Tipo sistema di sollevamento Con acceleratore a pedale e supporto a molla regolabile opzionale
+Larghezza di taglio 107 cm42 in.
+Garanzia
+Cambio olio
+Potenza A 3100 giri/min, 14,1 kW
+Cilindrata 726 cc44,3 cu in.
+Produttore/Modello FR651V
+Tipo Valvola in testa (OHV), lubrificazione a piena pressione, filtro olio
+Cilindri Accoppiati a V, rivestimenti in ghisa
+Regolatore Meccanico
+Comando velocità/starter Leve separate, ritorno starter automatico
+Impianto di raffreddamento Aria
+Filtro aria A secco, sostituibile
+Cambio olio Scarico dell'olio senza attrezzi con filtro sostituibile
+Tipo Benzina
+Mandata del carburante Pompa a impulsi, carburatore
+Indicatore livello carburante Indicatore su cruscotto
+Posizione del serbatoio carburante Posteriore
+Bocchettone di rifornimento carburante Sul parafango sinistro, 7,6 cm3 in.
+Capacità serbatoio carburante 12,5 L3,3 U.S. gal.
+Batteria 12 V340 CCA
+Sistema di carica Alternatore a volano, regolato, 12 amp
+Motorino di avviamento motore Bendix
+Contaore Sì
+Fari anteriori Due standard
+Luci di coda o catarinfrangente No
+Retroilluminazione No
+Luci di lavoro posteriori No
+Presa da 12 V No
+Tipo K46 idrostatico integrato con trasmissione
+Comando Pedali Twin Touch™
+CruiseControl Sì, leva sul cruscotto
+Scambiatore di calore dell'olio Alette e ventola su transaxle
+Filtro olio Sì, interno
+Bloccaggio del differenziale No
+Velocità di avanzamento 0-8,2 km/h0-5,1 mph
+Velocità di retromarcia 0-5,9 km/h0-3,7 mph
+Freni Disco interno a bagno d'olio
+Telaio Saldato rinforzato
+Vernice di fondo/vernice Elettroforesi/polvere
+Contrappeso Opzionale anteriore e opzionale posteriore, ciascuna sostiene fino a due pesi Quik-Tatch™, 19 kg42 lb
+Attacco femmina No
+Assale anteriore Ghisa
+Boccole degli alberini No
+Pneumatici anteriori 15x6-6
+Pneumatici posteriori 20x10-8
+Materiale del cofano Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.
+Materiale del piatto di taglio Acciaio stampato
+Tappetini Gomma antiscivolo
+Vano portaoggetti Sì, cassetta portattrezzi sotto il sedile e coperta
+Etichetta adesiva con intervalli di manutenzione Sì
+Maniglie/impugnature parafango No
+Portatazza Sì
+Montaggio attrezzatura Sì, rinforzato
+Tipo Manuale, a settore e a pignone
+Sterzo sulle quattro ruote Non disponibile su questo modello
+Volante 35,6 cm14 in.
+Volante inclinabile No
+Raggio di sterzata 40,6 cm16 in.
+Raggio cerchio non tagliato Piatto tosaerba 42A: 66 cm26 in.Piatto tosaerba 42M, a destra: 58,4 cm23 in.Piatto tosaerba 42M, a sinistra: 68,6 cm27 in.
+Tipo Schienale aperto con impugnatura
+Altezza schienale 38 cm15 in.
+Braccioli No
+Regolazione longitudinale Con operatore seduto, guida di scorrimento, 15 posizioni, 17 cm6,6 in.
+Sospensione del sedile Due molle a spirale, regolazione in tre posizioni senza attrezzi in base al peso dell'operatore
+Tipo Con acceleratore a pedale e supporto a molla regolabile opzionale
+Attacchi idraulici No
+Altezza di taglio del tosaerba 13 posizioni, 2,5-10,2 cm1-4 in.
+Incrementi altezza di taglio 0,64 cm0,25 in.
+Altezza di taglio predefinita Sì
+Tipo Opzioni scarico laterale e mulching
+Larghezza di taglio 107 cm42 in.
+Struttura Cassa del piatto di taglio in acciaio stampato
+Materiale piatto di taglio 12 gauge2,7 mm0,105 in.
+Presa di lavaggio del tosaerba Sì
+Sistema di trasmissione tosaerba Cinghia in linea, PTO elettrica
+Ruote tosaerba Due
+Regolazione ruote tosaerba A quattro posizioni, richiesto attrezzo
+Regolazione livello del tosaerba Condotti di regolazione di precisione e volantino di livellamento del piatto di taglio a bordo
+Tipo Slittamento sotto il trattore
+Bracci delle parallele anteriori Fissati in due punti con spine elastiche
+Bracci delle parallele posteriori Due perni e fermagli elastici
+Rotazione ruote tosaerba No
+Sistema di trasmissione 42A: Cinghia singola42M: Cinghia doppia
+Conforme agli standard ANSI Sì
+Conforme agli standard OPEI Sì
+Protezione di sicurezza Opzione uso attrezzo in retromarcia (RIO)
+Video sulla sicurezza
+Note Il materiale completamente integrato, stampato in tinta attutisce il rumore, non si arrugginisce o ammacca.Primer e finitura con vernice in polvere elettroforetici duraturi
+Garanzia
+Raccoglierba posteriore 42A: 2 sacchi, 250 L7 bu
+Raccoglierba motorizzato
+Sistema di pacciamatura 42A: Kit per mulching standard
+Strigliatore anteriore
+Lama anteriore 112 cm44 in.
+Lama intermedia
+Turbina da neve 112 cm44 in.
+Spazzola rotativa
+Dissodatore rotativo
+Manicotto dell’attacco
+Attacco a 3 punti
+Presa di forza (PTO) posteriore
+Aratro a versoio
+Raschiatore
+Coltivatore
+Lama posteriore
+Erpice a dischi
+Rastrello raccoglipietre
+Irroratrice
+Spargitrice Traino posteriore, 80 kg175 lb
+Paraurti anteriore Opzione paraurti sagomato
+Protezione spazzola Sì
+Protezione dalle intemperie
+Copertura parasole
+Attacco gancio posteriore
+Portabenna
+Striatura erba
+Pala per trattore
+Caricatore frontale
+Altre attrezzature
+Strumenti con traino posteriore
+Tosaerba
+Altezza 117 cm46 in.
+Lunghezza totale 182,9 cm72 in.
+Passo 125,5 cm49,4 in.
+Larghezza con il tosaerba 42A: 128 cm50,5 in.42M: 111,8 cm44 in.
+Larghezza con tosaerba (deflettore sollevato per immagazzinamento) 42A: 131 cm51,4 in.
+Larghezza senza il tosaerba 96,5 cm38 in.
+Peso Piatto tosaerba 42A, senza carburante: 252 kg556 lbPiatto tosaerba 42M, senza carburante: 261 kg575 lb
+Posizione produzione Horicon (Wisconsin), USA
+Dati Raccolti 27 luglio 2020</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
           <t>John Deere</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>0000</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Macchine</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
+          <t>Macchine</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>C:\ImmaginiDanea\jd\X350.jpg</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>https://www.deere.it/it/tosaerba/trattorini/serie-x300/x350/</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
